--- a/processed_sheets/cleaned_NBCE_The Voice S28_Fall_25_RFP Template (Samsung Ads) 5.13_Drop_Downs.xlsx
+++ b/processed_sheets/cleaned_NBCE_The Voice S28_Fall_25_RFP Template (Samsung Ads) 5.13_Drop_Downs.xlsx
@@ -18,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,9 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,173 +440,225 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Platform/Device Types</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ad Format Types</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Yes/No Options</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pricing Models</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rich Media - W/O Video</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CPM</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mobile - Web</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rich Media - WITH Video</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Flat Fee</t>
+          <t>Desktop</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mobile - In App</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tracking - 1x1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Added Value</t>
+          <t>Mobile - Web</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Site Served</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CPC</t>
+          <t>Mobile - In App</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Connected TV</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Standard Banner</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CPE</t>
+          <t>Tablet</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Connected TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Cross-Platform</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rich Media - W/O Video</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rich Media - WITH Video</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tracking - 1x1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Site Served</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Standard Banner</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
         <is>
           <t>HTML5 Standard Banner</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VAST Video</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>In-Stream Video</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CPM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Flat Fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Added Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>VAST Video</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CPCV</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>In-Stream Video</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>vCPM</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>dCPM</t>
         </is>
